--- a/Jogos_do_Dia/2024-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1708,13 +1708,13 @@
         <v>4.01</v>
       </c>
       <c r="J2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
         <v>1.35</v>
@@ -1735,10 +1735,10 @@
         <v>3.58</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T2">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U2">
         <v>1.65</v>
@@ -1970,13 +1970,13 @@
         <v>2.25</v>
       </c>
       <c r="J4">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="K4">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="M4">
         <v>1.4</v>
@@ -1997,10 +1997,10 @@
         <v>3.25</v>
       </c>
       <c r="S4">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T4">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -2625,13 +2625,13 @@
         <v>4.33</v>
       </c>
       <c r="J9">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="K9">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
         <v>1.44</v>
@@ -2652,10 +2652,10 @@
         <v>3.2</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U9">
         <v>1.83</v>
@@ -2756,13 +2756,13 @@
         <v>5.5</v>
       </c>
       <c r="J10">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="K10">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="L10">
-        <v>4.41</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
         <v>1.53</v>
@@ -2783,10 +2783,10 @@
         <v>2.45</v>
       </c>
       <c r="S10">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="T10">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U10">
         <v>2.2</v>
@@ -2887,13 +2887,13 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="K11">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
         <v>1.44</v>
@@ -2914,10 +2914,10 @@
         <v>2.95</v>
       </c>
       <c r="S11">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T11">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U11">
         <v>1.91</v>
@@ -3018,13 +3018,13 @@
         <v>2.97</v>
       </c>
       <c r="J12">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="M12">
         <v>1.57</v>
@@ -3045,10 +3045,10 @@
         <v>2.4</v>
       </c>
       <c r="S12">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="T12">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U12">
         <v>2.1</v>
@@ -3149,13 +3149,13 @@
         <v>4.33</v>
       </c>
       <c r="J13">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L13">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
         <v>1.5</v>
@@ -3176,10 +3176,10 @@
         <v>2.85</v>
       </c>
       <c r="S13">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="U13">
         <v>1.95</v>
@@ -3280,13 +3280,13 @@
         <v>2.5</v>
       </c>
       <c r="J14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L14">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -3307,10 +3307,10 @@
         <v>3.28</v>
       </c>
       <c r="S14">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U14">
         <v>1.78</v>
@@ -3411,13 +3411,13 @@
         <v>3.6</v>
       </c>
       <c r="J15">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K15">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L15">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>1.45</v>
@@ -3438,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="T15">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U15">
         <v>1.77</v>
@@ -3542,13 +3542,13 @@
         <v>3.69</v>
       </c>
       <c r="J16">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="K16">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="L16">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
         <v>1.48</v>
@@ -3569,10 +3569,10 @@
         <v>2.95</v>
       </c>
       <c r="S16">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="T16">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U16">
         <v>1.83</v>
@@ -3676,10 +3676,10 @@
         <v>2.4</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>1.4</v>
@@ -3700,10 +3700,10 @@
         <v>3.3</v>
       </c>
       <c r="S17">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="T17">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U17">
         <v>1.75</v>
@@ -3804,13 +3804,13 @@
         <v>3.4</v>
       </c>
       <c r="J18">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="K18">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
         <v>1.46</v>
@@ -3831,10 +3831,10 @@
         <v>2.8</v>
       </c>
       <c r="S18">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="T18">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U18">
         <v>1.9</v>
@@ -4066,13 +4066,13 @@
         <v>4.75</v>
       </c>
       <c r="J20">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
         <v>1.32</v>
@@ -4093,7 +4093,7 @@
         <v>3.96</v>
       </c>
       <c r="S20">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T20">
         <v>2.1</v>
@@ -4852,13 +4852,13 @@
         <v>4.75</v>
       </c>
       <c r="J26">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="K26">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>1.36</v>
@@ -4879,10 +4879,10 @@
         <v>3.6</v>
       </c>
       <c r="S26">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U26">
         <v>1.77</v>
@@ -5114,13 +5114,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="K28">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="L28">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
         <v>1.4</v>
@@ -5141,10 +5141,10 @@
         <v>3.4</v>
       </c>
       <c r="S28">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
         <v>1.75</v>
@@ -5245,13 +5245,13 @@
         <v>3.32</v>
       </c>
       <c r="J29">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="K29">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="M29">
         <v>1.44</v>
@@ -5272,10 +5272,10 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="T29">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U29">
         <v>1.85</v>
@@ -5769,13 +5769,13 @@
         <v>3.6</v>
       </c>
       <c r="J33">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="K33">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="M33">
         <v>1.57</v>
@@ -5796,7 +5796,7 @@
         <v>2.45</v>
       </c>
       <c r="S33">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="T33">
         <v>1.53</v>
@@ -5900,13 +5900,13 @@
         <v>3.2</v>
       </c>
       <c r="J34">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K34">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="L34">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M34">
         <v>1.33</v>
@@ -5927,10 +5927,10 @@
         <v>4.33</v>
       </c>
       <c r="S34">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="T34">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U34">
         <v>1.57</v>
@@ -6031,13 +6031,13 @@
         <v>4</v>
       </c>
       <c r="J35">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>3.69</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
         <v>1.4</v>
@@ -6058,10 +6058,10 @@
         <v>3.4</v>
       </c>
       <c r="S35">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T35">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U35">
         <v>1.8</v>
@@ -6162,13 +6162,13 @@
         <v>3.75</v>
       </c>
       <c r="J36">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="K36">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
         <v>1.33</v>
@@ -6189,10 +6189,10 @@
         <v>4</v>
       </c>
       <c r="S36">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T36">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="U36">
         <v>1.67</v>
@@ -6293,13 +6293,13 @@
         <v>4.5</v>
       </c>
       <c r="J37">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="K37">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
         <v>1.33</v>
@@ -6320,10 +6320,10 @@
         <v>4</v>
       </c>
       <c r="S37">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="U37">
         <v>1.75</v>
@@ -6817,13 +6817,13 @@
         <v>1.5</v>
       </c>
       <c r="J41">
-        <v>9.85</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>9.66</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="M41">
         <v>1.17</v>
@@ -9568,13 +9568,13 @@
         <v>4</v>
       </c>
       <c r="J62">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M62">
         <v>1.33</v>
@@ -9595,7 +9595,7 @@
         <v>3.9</v>
       </c>
       <c r="S62">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="T62">
         <v>2.1</v>
@@ -9699,10 +9699,10 @@
         <v>6</v>
       </c>
       <c r="J63">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K63">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L63">
         <v>5.5</v>
@@ -9726,10 +9726,10 @@
         <v>4.2</v>
       </c>
       <c r="S63">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U63">
         <v>1.8</v>
@@ -9830,10 +9830,10 @@
         <v>4.33</v>
       </c>
       <c r="J64">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K64">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="L64">
         <v>3.25</v>
@@ -9857,10 +9857,10 @@
         <v>2.7</v>
       </c>
       <c r="S64">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="U64">
         <v>2.05</v>
@@ -9902,16 +9902,16 @@
         <v>2.66</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL64">
         <v>1.51</v>
@@ -9961,13 +9961,13 @@
         <v>3.75</v>
       </c>
       <c r="J65">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K65">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L65">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M65">
         <v>1.4</v>
@@ -9988,10 +9988,10 @@
         <v>3.4</v>
       </c>
       <c r="S65">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="U65">
         <v>1.75</v>
@@ -10033,16 +10033,16 @@
         <v>2.66</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ65">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK65">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL65">
         <v>1.6</v>
@@ -10092,13 +10092,13 @@
         <v>2.5</v>
       </c>
       <c r="J66">
-        <v>4.34</v>
+        <v>4.2</v>
       </c>
       <c r="K66">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="M66">
         <v>1.4</v>
@@ -10119,10 +10119,10 @@
         <v>3.3</v>
       </c>
       <c r="S66">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T66">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U66">
         <v>1.91</v>
@@ -10164,16 +10164,16 @@
         <v>1.55</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AJ66">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AL66">
         <v>1.47</v>
@@ -10223,13 +10223,13 @@
         <v>2.75</v>
       </c>
       <c r="J67">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="K67">
-        <v>5.26</v>
+        <v>3.7</v>
       </c>
       <c r="L67">
-        <v>1.68</v>
+        <v>2.25</v>
       </c>
       <c r="M67">
         <v>1.33</v>
@@ -10250,10 +10250,10 @@
         <v>4.25</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T67">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="U67">
         <v>1.67</v>
@@ -10354,13 +10354,13 @@
         <v>3</v>
       </c>
       <c r="J68">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K68">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="L68">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M68">
         <v>1.33</v>
@@ -10381,10 +10381,10 @@
         <v>4.35</v>
       </c>
       <c r="S68">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="T68">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="U68">
         <v>1.57</v>
@@ -10485,13 +10485,13 @@
         <v>3.4</v>
       </c>
       <c r="J69">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K69">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="L69">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="M69">
         <v>1.36</v>
@@ -10512,10 +10512,10 @@
         <v>3.5</v>
       </c>
       <c r="S69">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="T69">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U69">
         <v>1.67</v>
@@ -10616,13 +10616,13 @@
         <v>6</v>
       </c>
       <c r="J70">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="K70">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L70">
-        <v>5.35</v>
+        <v>6.5</v>
       </c>
       <c r="M70">
         <v>1.33</v>
@@ -10643,10 +10643,10 @@
         <v>3.8</v>
       </c>
       <c r="S70">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U70">
         <v>1.8</v>
@@ -10747,13 +10747,13 @@
         <v>15</v>
       </c>
       <c r="J71">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="K71">
-        <v>6.85</v>
+        <v>7</v>
       </c>
       <c r="L71">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="M71">
         <v>1.22</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AK71">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AL71">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AM71">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AP71">
         <v>2</v>
@@ -11009,13 +11009,13 @@
         <v>3.4</v>
       </c>
       <c r="J73">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K73">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="L73">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -11036,10 +11036,10 @@
         <v>3.28</v>
       </c>
       <c r="S73">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="T73">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U73">
         <v>1.73</v>
@@ -11140,13 +11140,13 @@
         <v>2.6</v>
       </c>
       <c r="J74">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L74">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="M74">
         <v>1.44</v>
@@ -11167,10 +11167,10 @@
         <v>3.04</v>
       </c>
       <c r="S74">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U74">
         <v>1.83</v>
@@ -11271,13 +11271,13 @@
         <v>3.4</v>
       </c>
       <c r="J75">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="K75">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M75">
         <v>1.4</v>
@@ -11298,10 +11298,10 @@
         <v>3.3</v>
       </c>
       <c r="S75">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="T75">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="U75">
         <v>1.73</v>
@@ -11402,13 +11402,13 @@
         <v>3.75</v>
       </c>
       <c r="J76">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K76">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="M76">
         <v>1.44</v>
@@ -11429,10 +11429,10 @@
         <v>3</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U76">
         <v>1.83</v>
@@ -11533,13 +11533,13 @@
         <v>5</v>
       </c>
       <c r="J77">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="K77">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>4.15</v>
+        <v>5</v>
       </c>
       <c r="M77">
         <v>1.44</v>
@@ -11560,10 +11560,10 @@
         <v>3</v>
       </c>
       <c r="S77">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -11664,13 +11664,13 @@
         <v>2.3</v>
       </c>
       <c r="J78">
-        <v>3.56</v>
+        <v>4.2</v>
       </c>
       <c r="K78">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="M78">
         <v>1.3</v>
@@ -11691,10 +11691,10 @@
         <v>4</v>
       </c>
       <c r="S78">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="T78">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="U78">
         <v>1.65</v>
@@ -11795,13 +11795,13 @@
         <v>5</v>
       </c>
       <c r="J79">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="L79">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
         <v>1.44</v>
@@ -11822,10 +11822,10 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="T79">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U79">
         <v>1.95</v>
@@ -11926,13 +11926,13 @@
         <v>4</v>
       </c>
       <c r="J80">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K80">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
         <v>1.55</v>
@@ -12188,13 +12188,13 @@
         <v>7</v>
       </c>
       <c r="J82">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="K82">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="L82">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="M82">
         <v>1.36</v>
@@ -12215,10 +12215,10 @@
         <v>3.55</v>
       </c>
       <c r="S82">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="T82">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U82">
         <v>2.1</v>
@@ -12319,13 +12319,13 @@
         <v>3.75</v>
       </c>
       <c r="J83">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K83">
+        <v>2.9</v>
+      </c>
+      <c r="L83">
         <v>3</v>
-      </c>
-      <c r="L83">
-        <v>3.1</v>
       </c>
       <c r="M83">
         <v>1.5</v>
@@ -12346,10 +12346,10 @@
         <v>2.76</v>
       </c>
       <c r="S83">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T83">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U83">
         <v>1.95</v>
@@ -12450,13 +12450,13 @@
         <v>2.1</v>
       </c>
       <c r="J84">
-        <v>5.12</v>
+        <v>5.5</v>
       </c>
       <c r="K84">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L84">
-        <v>2.69</v>
+        <v>1.57</v>
       </c>
       <c r="M84">
         <v>1.36</v>
@@ -12477,10 +12477,10 @@
         <v>3.85</v>
       </c>
       <c r="S84">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U84">
         <v>1.91</v>
@@ -12581,13 +12581,13 @@
         <v>3.74</v>
       </c>
       <c r="J85">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="K85">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="M85">
         <v>1.51</v>
@@ -12608,10 +12608,10 @@
         <v>2.7</v>
       </c>
       <c r="S85">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="T85">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U85">
         <v>1.95</v>
@@ -12712,13 +12712,13 @@
         <v>3.98</v>
       </c>
       <c r="J86">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="K86">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="L86">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="M86">
         <v>1.55</v>
@@ -12739,10 +12739,10 @@
         <v>2.55</v>
       </c>
       <c r="S86">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="T86">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U86">
         <v>2</v>
@@ -12843,13 +12843,13 @@
         <v>4.91</v>
       </c>
       <c r="J87">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="K87">
         <v>3.25</v>
       </c>
       <c r="L87">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="M87">
         <v>1.42</v>
@@ -12870,10 +12870,10 @@
         <v>3</v>
       </c>
       <c r="S87">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U87">
         <v>1.91</v>
@@ -12974,13 +12974,13 @@
         <v>3.3</v>
       </c>
       <c r="J88">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="K88">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
         <v>1.49</v>
@@ -13004,7 +13004,7 @@
         <v>2.23</v>
       </c>
       <c r="T88">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="U88">
         <v>1.9</v>
@@ -13105,13 +13105,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="K89">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L89">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -13132,10 +13132,10 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -13236,13 +13236,13 @@
         <v>3.25</v>
       </c>
       <c r="J90">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="K90">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="L90">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="M90">
         <v>1.44</v>
@@ -13263,10 +13263,10 @@
         <v>3.6</v>
       </c>
       <c r="S90">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U90">
         <v>1.8</v>
@@ -13629,13 +13629,13 @@
         <v>4.75</v>
       </c>
       <c r="J93">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K93">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>4.47</v>
+        <v>4.2</v>
       </c>
       <c r="M93">
         <v>1.4</v>
@@ -13656,10 +13656,10 @@
         <v>3.4</v>
       </c>
       <c r="S93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U93">
         <v>1.95</v>
@@ -13760,13 +13760,13 @@
         <v>3</v>
       </c>
       <c r="J94">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="K94">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="L94">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="M94">
         <v>1.44</v>
@@ -13787,10 +13787,10 @@
         <v>3</v>
       </c>
       <c r="S94">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="T94">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="U94">
         <v>1.95</v>
@@ -13891,13 +13891,13 @@
         <v>2.6</v>
       </c>
       <c r="J95">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="M95">
         <v>1.36</v>
@@ -13918,10 +13918,10 @@
         <v>3.75</v>
       </c>
       <c r="S95">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="T95">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="U95">
         <v>1.75</v>
@@ -14808,13 +14808,13 @@
         <v>3.2</v>
       </c>
       <c r="J102">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="K102">
-        <v>4.54</v>
+        <v>3.2</v>
       </c>
       <c r="L102">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M102">
         <v>1.44</v>
@@ -14835,7 +14835,7 @@
         <v>3.1</v>
       </c>
       <c r="S102">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T102">
         <v>1.7</v>
@@ -14939,13 +14939,13 @@
         <v>2.63</v>
       </c>
       <c r="J103">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="K103">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="L103">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M103">
         <v>1.4</v>
@@ -14969,7 +14969,7 @@
         <v>1.98</v>
       </c>
       <c r="T103">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U103">
         <v>1.8</v>
@@ -15142,10 +15142,10 @@
         <v>1.91</v>
       </c>
       <c r="AH104">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI104">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ104">
         <v>1.36</v>
@@ -15416,10 +15416,10 @@
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM106">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN106">
         <v>0</v>
@@ -15463,13 +15463,13 @@
         <v>2.88</v>
       </c>
       <c r="J107">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L107">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="M107">
         <v>1.4</v>
@@ -15490,10 +15490,10 @@
         <v>3.6</v>
       </c>
       <c r="S107">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T107">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U107">
         <v>1.7</v>
@@ -15594,13 +15594,13 @@
         <v>2.38</v>
       </c>
       <c r="J108">
-        <v>3.71</v>
+        <v>3</v>
       </c>
       <c r="K108">
-        <v>4.13</v>
+        <v>3.8</v>
       </c>
       <c r="L108">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="M108">
         <v>1.25</v>
@@ -15621,10 +15621,10 @@
         <v>4.75</v>
       </c>
       <c r="S108">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="T108">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="U108">
         <v>1.44</v>
@@ -15725,13 +15725,13 @@
         <v>2.6</v>
       </c>
       <c r="J109">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K109">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L109">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="M109">
         <v>1.25</v>
@@ -15752,10 +15752,10 @@
         <v>5.4</v>
       </c>
       <c r="S109">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="T109">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="U109">
         <v>1.5</v>
@@ -15856,13 +15856,13 @@
         <v>5</v>
       </c>
       <c r="J110">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="K110">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L110">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="M110">
         <v>1.42</v>
@@ -15883,10 +15883,10 @@
         <v>3.1</v>
       </c>
       <c r="S110">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T110">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U110">
         <v>1.91</v>
@@ -15987,13 +15987,13 @@
         <v>4.5</v>
       </c>
       <c r="J111">
-        <v>2.31</v>
+        <v>1.8</v>
       </c>
       <c r="K111">
-        <v>1.94</v>
+        <v>3.6</v>
       </c>
       <c r="L111">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="M111">
         <v>1.36</v>
@@ -16014,10 +16014,10 @@
         <v>3.61</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U111">
         <v>1.75</v>
@@ -16118,13 +16118,13 @@
         <v>4.77</v>
       </c>
       <c r="J112">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="K112">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="M112">
         <v>1.37</v>
@@ -16145,10 +16145,10 @@
         <v>3.61</v>
       </c>
       <c r="S112">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T112">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U112">
         <v>1.74</v>
@@ -16252,10 +16252,10 @@
         <v>2</v>
       </c>
       <c r="K113">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
         <v>1.44</v>
@@ -16383,10 +16383,10 @@
         <v>1.91</v>
       </c>
       <c r="K114">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="M114">
         <v>1.65</v>
@@ -16642,13 +16642,13 @@
         <v>4.2</v>
       </c>
       <c r="J116">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K116">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L116">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="M116">
         <v>1.48</v>
@@ -16669,10 +16669,10 @@
         <v>2.9</v>
       </c>
       <c r="S116">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="T116">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U116">
         <v>1.91</v>
@@ -16776,10 +16776,10 @@
         <v>2.15</v>
       </c>
       <c r="K117">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L117">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
         <v>1.42</v>
@@ -16800,10 +16800,10 @@
         <v>3.25</v>
       </c>
       <c r="S117">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U117">
         <v>1.73</v>
@@ -16904,13 +16904,13 @@
         <v>4.75</v>
       </c>
       <c r="J118">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K118">
         <v>3.2</v>
       </c>
       <c r="L118">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
         <v>1.5</v>
@@ -16931,10 +16931,10 @@
         <v>2.75</v>
       </c>
       <c r="S118">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="T118">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -17035,13 +17035,13 @@
         <v>3.2</v>
       </c>
       <c r="J119">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="K119">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="L119">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="M119">
         <v>1.45</v>
@@ -17062,10 +17062,10 @@
         <v>3</v>
       </c>
       <c r="S119">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="T119">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="U119">
         <v>1.83</v>
@@ -17169,10 +17169,10 @@
         <v>2.05</v>
       </c>
       <c r="K120">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L120">
-        <v>3.93</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
         <v>1.51</v>
@@ -17193,10 +17193,10 @@
         <v>2.75</v>
       </c>
       <c r="S120">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="T120">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U120">
         <v>2.09</v>
@@ -17297,10 +17297,10 @@
         <v>2.85</v>
       </c>
       <c r="J121">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K121">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L121">
         <v>2.2</v>
@@ -17324,10 +17324,10 @@
         <v>3.2</v>
       </c>
       <c r="S121">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="T121">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U121">
         <v>1.75</v>
@@ -17428,13 +17428,13 @@
         <v>4.5</v>
       </c>
       <c r="J122">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="K122">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="L122">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
         <v>1.67</v>
@@ -17449,16 +17449,16 @@
         <v>5.5</v>
       </c>
       <c r="Q122">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R122">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S122">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="T122">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U122">
         <v>2.3</v>
@@ -17559,10 +17559,10 @@
         <v>3.96</v>
       </c>
       <c r="J123">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K123">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="L123">
         <v>3.1</v>
@@ -17586,10 +17586,10 @@
         <v>3.75</v>
       </c>
       <c r="S123">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="T123">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U123">
         <v>1.73</v>
@@ -17690,13 +17690,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>2.93</v>
+        <v>1.44</v>
       </c>
       <c r="K124">
-        <v>1.68</v>
+        <v>4.75</v>
       </c>
       <c r="L124">
-        <v>5.77</v>
+        <v>6</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -17717,10 +17717,10 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T124">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="U124">
         <v>0</v>
@@ -17821,13 +17821,13 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K125">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="L125">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -17848,10 +17848,10 @@
         <v>0</v>
       </c>
       <c r="S125">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T125">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U125">
         <v>0</v>
@@ -17952,13 +17952,13 @@
         <v>4</v>
       </c>
       <c r="J126">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K126">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L126">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
         <v>1.5</v>
@@ -17979,10 +17979,10 @@
         <v>2.68</v>
       </c>
       <c r="S126">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="T126">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="U126">
         <v>1.95</v>
@@ -18083,13 +18083,13 @@
         <v>4</v>
       </c>
       <c r="J127">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="K127">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
         <v>1.42</v>
@@ -18110,10 +18110,10 @@
         <v>3.1</v>
       </c>
       <c r="S127">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="T127">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="U127">
         <v>1.77</v>
@@ -18214,13 +18214,13 @@
         <v>6</v>
       </c>
       <c r="J128">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="K128">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="L128">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
         <v>1.48</v>
@@ -18244,7 +18244,7 @@
         <v>2.2</v>
       </c>
       <c r="T128">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U128">
         <v>2.2</v>
@@ -18607,13 +18607,13 @@
         <v>4.33</v>
       </c>
       <c r="J131">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="K131">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="M131">
         <v>1.36</v>
@@ -18637,7 +18637,7 @@
         <v>1.9</v>
       </c>
       <c r="T131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U131">
         <v>1.75</v>
@@ -19262,13 +19262,13 @@
         <v>2.75</v>
       </c>
       <c r="J136">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="K136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L136">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M136">
         <v>1.36</v>
@@ -19289,10 +19289,10 @@
         <v>3.5</v>
       </c>
       <c r="S136">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="T136">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="U136">
         <v>1.7</v>
@@ -19393,13 +19393,13 @@
         <v>6.5</v>
       </c>
       <c r="J137">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="K137">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L137">
-        <v>4.95</v>
+        <v>7</v>
       </c>
       <c r="M137">
         <v>1.53</v>
@@ -19420,10 +19420,10 @@
         <v>2.7</v>
       </c>
       <c r="S137">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
       <c r="T137">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="U137">
         <v>2.38</v>
@@ -19655,13 +19655,13 @@
         <v>6.5</v>
       </c>
       <c r="J139">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K139">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L139">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="M139">
         <v>1.44</v>
@@ -19682,10 +19682,10 @@
         <v>2.95</v>
       </c>
       <c r="S139">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="T139">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U139">
         <v>2.2</v>
@@ -19917,13 +19917,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="K141">
-        <v>5.58</v>
+        <v>7</v>
       </c>
       <c r="L141">
-        <v>7.06</v>
+        <v>17</v>
       </c>
       <c r="M141">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -4197,13 +4197,13 @@
         <v>4.33</v>
       </c>
       <c r="J21">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K21">
         <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
         <v>1.34</v>
@@ -4224,10 +4224,10 @@
         <v>3.75</v>
       </c>
       <c r="S21">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U21">
         <v>1.7</v>
@@ -4590,13 +4590,13 @@
         <v>3.8</v>
       </c>
       <c r="J24">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="K24">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
         <v>1.33</v>
@@ -4617,10 +4617,10 @@
         <v>4</v>
       </c>
       <c r="S24">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T24">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="U24">
         <v>1.6</v>
@@ -4721,13 +4721,13 @@
         <v>3.12</v>
       </c>
       <c r="J25">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K25">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
         <v>1.41</v>
@@ -4748,10 +4748,10 @@
         <v>3.25</v>
       </c>
       <c r="S25">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U25">
         <v>1.77</v>
@@ -15070,13 +15070,13 @@
         <v>3.35</v>
       </c>
       <c r="J104">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="K104">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="L104">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="M104">
         <v>1.47</v>
@@ -15097,10 +15097,10 @@
         <v>2.75</v>
       </c>
       <c r="S104">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="T104">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U104">
         <v>1.88</v>
